--- a/Excel & CSV Sheets/2018 Data/Final Form Reports/911_Reports_for_2018-12-11_FinalForm.xlsx
+++ b/Excel & CSV Sheets/2018 Data/Final Form Reports/911_Reports_for_2018-12-11_FinalForm.xlsx
@@ -1246,10 +1246,10 @@
     <t>NA</t>
   </si>
   <si>
+    <t>snow</t>
+  </si>
+  <si>
     <t>rain</t>
-  </si>
-  <si>
-    <t>snow</t>
   </si>
 </sst>
 </file>
@@ -2140,7 +2140,7 @@
         <v>0.12</v>
       </c>
       <c r="AC4" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AD4">
         <v>0.0001</v>
@@ -2274,7 +2274,7 @@
         <v>0.13</v>
       </c>
       <c r="AC5" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AD5">
         <v>0.0001</v>
@@ -2423,7 +2423,7 @@
         <v>0.12</v>
       </c>
       <c r="AC6" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AD6">
         <v>0.0001</v>
@@ -2572,7 +2572,7 @@
         <v>0.13</v>
       </c>
       <c r="AC7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AD7">
         <v>0.0001</v>
@@ -2709,7 +2709,7 @@
         <v>0.13</v>
       </c>
       <c r="AC8" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AD8">
         <v>0.0001</v>
@@ -3436,7 +3436,7 @@
         <v>0.13</v>
       </c>
       <c r="AC13" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AD13">
         <v>0.0001</v>
@@ -3713,7 +3713,7 @@
         <v>0.12</v>
       </c>
       <c r="AC15" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AD15">
         <v>0.0001</v>
@@ -4011,7 +4011,7 @@
         <v>0.12</v>
       </c>
       <c r="AC17" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AD17">
         <v>0.0001</v>
@@ -6162,7 +6162,7 @@
         <v>0.13</v>
       </c>
       <c r="AC32" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AD32">
         <v>0.0001</v>
@@ -8376,7 +8376,7 @@
         <v>0.13</v>
       </c>
       <c r="AC47" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AD47">
         <v>0.0001</v>
@@ -8525,7 +8525,7 @@
         <v>0.13</v>
       </c>
       <c r="AC48" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AD48">
         <v>0.0001</v>
@@ -8674,7 +8674,7 @@
         <v>0.13</v>
       </c>
       <c r="AC49" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AD49">
         <v>0.0001</v>
@@ -8823,7 +8823,7 @@
         <v>0.13</v>
       </c>
       <c r="AC50" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AD50">
         <v>0.0001</v>
@@ -10298,7 +10298,7 @@
         <v>0.13</v>
       </c>
       <c r="AC60" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AD60">
         <v>0.0001</v>
@@ -10447,7 +10447,7 @@
         <v>0.13</v>
       </c>
       <c r="AC61" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AD61">
         <v>0.0001</v>
@@ -12699,7 +12699,7 @@
         <v>0.13</v>
       </c>
       <c r="AC77" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AD77">
         <v>0.0001</v>
@@ -13545,7 +13545,7 @@
         <v>0.12</v>
       </c>
       <c r="AC83" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AD83">
         <v>0.0001</v>
@@ -14862,7 +14862,7 @@
         <v>0.09</v>
       </c>
       <c r="AC92" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AD92">
         <v>0.0001</v>
@@ -15160,7 +15160,7 @@
         <v>0.09</v>
       </c>
       <c r="AC94" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AD94">
         <v>0.0001</v>
@@ -15309,7 +15309,7 @@
         <v>0.11</v>
       </c>
       <c r="AC95" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AD95">
         <v>0.0001</v>
@@ -16489,7 +16489,7 @@
         <v>0.13</v>
       </c>
       <c r="AC103" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AD103">
         <v>0.0001</v>
@@ -16638,7 +16638,7 @@
         <v>0.11</v>
       </c>
       <c r="AC104" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AD104">
         <v>0.0001</v>
@@ -19546,7 +19546,7 @@
         <v>0.91</v>
       </c>
       <c r="AC124" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AD124">
         <v>0.0077</v>
